--- a/output/ejecucion_2/results/base_17_19/base_17_19_rf_o.xlsx
+++ b/output/ejecucion_2/results/base_17_19/base_17_19_rf_o.xlsx
@@ -22,94 +22,130 @@
     <t>score</t>
   </si>
   <si>
+    <t>p113a_t</t>
+  </si>
+  <si>
     <t>p301b_t</t>
   </si>
   <si>
     <t>p1172_02_t</t>
   </si>
   <si>
-    <t>p113a_t</t>
+    <t>p103_t</t>
   </si>
   <si>
     <t>p301a_t</t>
   </si>
   <si>
+    <t>p4195_t</t>
+  </si>
+  <si>
     <t>p1172_01_t</t>
   </si>
   <si>
     <t>p111a_t</t>
   </si>
   <si>
-    <t>p103_t</t>
-  </si>
-  <si>
     <t>p102_t</t>
   </si>
   <si>
-    <t>p4195_t</t>
-  </si>
-  <si>
     <t>p103a_t</t>
   </si>
   <si>
+    <t>t110_t</t>
+  </si>
+  <si>
+    <t>nbi2_t</t>
+  </si>
+  <si>
+    <t>p300a_t</t>
+  </si>
+  <si>
+    <t>p316a5_t</t>
+  </si>
+  <si>
+    <t>p1175_01_t</t>
+  </si>
+  <si>
+    <t>p110_t</t>
+  </si>
+  <si>
+    <t>p4021_t</t>
+  </si>
+  <si>
+    <t>p105a_t</t>
+  </si>
+  <si>
+    <t>p1171_15_t</t>
+  </si>
+  <si>
+    <t>p4023_t</t>
+  </si>
+  <si>
     <t>p110a_modificada_t</t>
   </si>
   <si>
-    <t>p105a_t</t>
-  </si>
-  <si>
-    <t>t110_t</t>
-  </si>
-  <si>
-    <t>p316a5_t</t>
-  </si>
-  <si>
-    <t>p300a_t</t>
-  </si>
-  <si>
     <t>p4022_t</t>
   </si>
   <si>
-    <t>p110_t</t>
-  </si>
-  <si>
-    <t>p4021_t</t>
-  </si>
-  <si>
-    <t>p1175_01_t</t>
+    <t>p316a1_t</t>
+  </si>
+  <si>
+    <t>p558c_t_2.0</t>
+  </si>
+  <si>
+    <t>p401_t</t>
+  </si>
+  <si>
+    <t>p1175_15_t</t>
+  </si>
+  <si>
+    <t>p558c_t_6.0</t>
+  </si>
+  <si>
+    <t>p501_t</t>
+  </si>
+  <si>
+    <t>ocu500_t_4.0</t>
+  </si>
+  <si>
+    <t>p599_t_1.0</t>
+  </si>
+  <si>
+    <t>p1175_08_t</t>
+  </si>
+  <si>
+    <t>p112a_t</t>
+  </si>
+  <si>
+    <t>p1137_t</t>
+  </si>
+  <si>
+    <t>p401c_t</t>
   </si>
   <si>
     <t>p316a2_t</t>
   </si>
   <si>
-    <t>p501_t</t>
-  </si>
-  <si>
-    <t>ocu500_t_4.0</t>
-  </si>
-  <si>
-    <t>p558c_t_6.0</t>
-  </si>
-  <si>
-    <t>p4023_t</t>
+    <t>p558d_t_3.0</t>
   </si>
   <si>
     <t>p558d_t_1.0</t>
   </si>
   <si>
-    <t>p558d_t_3.0</t>
-  </si>
-  <si>
-    <t>p1175_08_t</t>
+    <t>p104b1_t</t>
+  </si>
+  <si>
+    <t>p1171_08_t</t>
+  </si>
+  <si>
+    <t>p558c_t_5.0</t>
   </si>
   <si>
     <t>p559_04_t</t>
   </si>
   <si>
-    <t>p1175_15_t</t>
-  </si>
-  <si>
-    <t>p599_t_1.0</t>
+    <t>p558a1_t</t>
   </si>
   <si>
     <t>p558c_t_1.0</t>
@@ -118,58 +154,22 @@
     <t>p4025_t</t>
   </si>
   <si>
-    <t>p112a_t</t>
-  </si>
-  <si>
-    <t>p401_t</t>
+    <t>p1136_t</t>
   </si>
   <si>
     <t>p558c_t_4.0</t>
   </si>
   <si>
-    <t>p1171_15_t</t>
-  </si>
-  <si>
-    <t>nbi2_t</t>
-  </si>
-  <si>
-    <t>p558c_t_5.0</t>
-  </si>
-  <si>
-    <t>p558c_t_2.0</t>
-  </si>
-  <si>
-    <t>p104b1_t</t>
+    <t>p413b2_t</t>
   </si>
   <si>
     <t>p558d_t_2.0</t>
   </si>
   <si>
-    <t>p1137_t</t>
-  </si>
-  <si>
-    <t>p316a1_t</t>
-  </si>
-  <si>
-    <t>p558c_t_8.0</t>
-  </si>
-  <si>
-    <t>p558a1_t</t>
-  </si>
-  <si>
-    <t>p1171_08_t</t>
-  </si>
-  <si>
-    <t>p22_t</t>
-  </si>
-  <si>
-    <t>p414_02_t</t>
-  </si>
-  <si>
     <t>p558c_t_7.0</t>
   </si>
   <si>
-    <t>p559_02_t</t>
+    <t>p110a_t</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.06290501736034992</v>
+        <v>0.1002335343151243</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -560,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.05683542264462767</v>
+        <v>0.05801295217904984</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.05388841173835906</v>
+        <v>0.04629809730422665</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -582,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.03956054980167693</v>
+        <v>0.04617479558987161</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -593,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.03199319197026537</v>
+        <v>0.04362698637375531</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -604,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.03165165317176312</v>
+        <v>0.03786023099302727</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -615,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.02998981472169163</v>
+        <v>0.0302029276934412</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -626,7 +626,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.02315158514447716</v>
+        <v>0.02796873105978658</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -637,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.02244892606537856</v>
+        <v>0.01846681326692756</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -648,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.01965245554997968</v>
+        <v>0.01700676432260381</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -659,7 +659,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.01330153838491832</v>
+        <v>0.01178859106662846</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -670,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.01305936817092368</v>
+        <v>0.0115918244738688</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -681,7 +681,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.01249264744874843</v>
+        <v>0.01153787454128525</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -692,7 +692,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.01246255382071848</v>
+        <v>0.01130459538975107</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -703,7 +703,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.01232000984564518</v>
+        <v>0.01116213583257481</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -714,7 +714,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.01173020929801097</v>
+        <v>0.01070720398110504</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -725,7 +725,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.01167646288651614</v>
+        <v>0.01063190415498572</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -736,7 +736,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.01124127428749792</v>
+        <v>0.01056374808714555</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -747,7 +747,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.01119429061864006</v>
+        <v>0.010520950876118</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -758,7 +758,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.0107705469496752</v>
+        <v>0.01012986689173371</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -769,7 +769,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.01039685346793601</v>
+        <v>0.009713154534162962</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -780,7 +780,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.01032325199643232</v>
+        <v>0.009683924237184253</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -791,7 +791,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.0101707637256369</v>
+        <v>0.009598385368175914</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -802,7 +802,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.01006012098204096</v>
+        <v>0.009306137224794016</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -813,7 +813,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.009828189330868245</v>
+        <v>0.009168214681759173</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -824,7 +824,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.009706300382023379</v>
+        <v>0.008743928796036853</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -835,7 +835,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.009370452603065233</v>
+        <v>0.008662898315938512</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -846,7 +846,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.009364290753706482</v>
+        <v>0.007794271741260688</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -857,7 +857,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.009357985623663767</v>
+        <v>0.007784395023366958</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -868,7 +868,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.0092442702283629</v>
+        <v>0.007752210562113636</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -879,7 +879,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.009082915159279004</v>
+        <v>0.00772519529301947</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -890,7 +890,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.009019875349132562</v>
+        <v>0.007607890114751058</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -901,7 +901,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.008802866684699904</v>
+        <v>0.007582980783229091</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -912,7 +912,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.008720892483543817</v>
+        <v>0.00741512521341419</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -923,7 +923,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.00843806966406784</v>
+        <v>0.007212055424864941</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -934,7 +934,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.008295759271387386</v>
+        <v>0.007039306494152963</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -945,7 +945,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>0.00816057886654554</v>
+        <v>0.006716933805777131</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -956,7 +956,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>0.007910848267912449</v>
+        <v>0.006649900728838037</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -967,7 +967,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0.007782323448017457</v>
+        <v>0.00662573151409828</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -978,7 +978,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>0.007759383613223677</v>
+        <v>0.006550424442471146</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -989,7 +989,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>0.007504150618275552</v>
+        <v>0.006447978954662293</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1000,7 +1000,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>0.007434512054277919</v>
+        <v>0.006365039604354895</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1011,7 +1011,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>0.007398967804655828</v>
+        <v>0.006213165930217458</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1022,7 +1022,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>0.007398498650560605</v>
+        <v>0.005972850990577291</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1033,7 +1033,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>0.007384739127781455</v>
+        <v>0.005888823855884517</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1044,7 +1044,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>0.00729653133379975</v>
+        <v>0.005881467565376582</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1055,7 +1055,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>0.007034758348853325</v>
+        <v>0.005678816811330962</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1066,7 +1066,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>0.006956358824620488</v>
+        <v>0.005614078937215908</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1077,7 +1077,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>0.006880633496829224</v>
+        <v>0.005580995766486856</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>0.006871629637055668</v>
+        <v>0.005561588939768623</v>
       </c>
     </row>
   </sheetData>

--- a/output/ejecucion_2/results/base_17_19/base_17_19_rf_o.xlsx
+++ b/output/ejecucion_2/results/base_17_19/base_17_19_rf_o.xlsx
@@ -22,154 +22,154 @@
     <t>score</t>
   </si>
   <si>
+    <t>p301b_t</t>
+  </si>
+  <si>
+    <t>p1172_02_t</t>
+  </si>
+  <si>
     <t>p113a_t</t>
   </si>
   <si>
-    <t>p301b_t</t>
-  </si>
-  <si>
-    <t>p1172_02_t</t>
+    <t>p301a_t</t>
+  </si>
+  <si>
+    <t>p1172_01_t</t>
+  </si>
+  <si>
+    <t>p111a_t</t>
   </si>
   <si>
     <t>p103_t</t>
   </si>
   <si>
-    <t>p301a_t</t>
+    <t>p102_t</t>
   </si>
   <si>
     <t>p4195_t</t>
   </si>
   <si>
-    <t>p1172_01_t</t>
-  </si>
-  <si>
-    <t>p111a_t</t>
-  </si>
-  <si>
-    <t>p102_t</t>
-  </si>
-  <si>
     <t>p103a_t</t>
   </si>
   <si>
+    <t>p110a_modificada_t</t>
+  </si>
+  <si>
+    <t>p105a_t</t>
+  </si>
+  <si>
     <t>t110_t</t>
   </si>
   <si>
+    <t>p316a5_t</t>
+  </si>
+  <si>
+    <t>p300a_t</t>
+  </si>
+  <si>
+    <t>p4022_t</t>
+  </si>
+  <si>
+    <t>p110_t</t>
+  </si>
+  <si>
+    <t>p4021_t</t>
+  </si>
+  <si>
+    <t>p1175_01_t</t>
+  </si>
+  <si>
+    <t>p316a2_t</t>
+  </si>
+  <si>
+    <t>p501_t</t>
+  </si>
+  <si>
+    <t>ocu500_t_4.0</t>
+  </si>
+  <si>
+    <t>p558c_t_6.0</t>
+  </si>
+  <si>
+    <t>p4023_t</t>
+  </si>
+  <si>
+    <t>p558d_t_1.0</t>
+  </si>
+  <si>
+    <t>p558d_t_3.0</t>
+  </si>
+  <si>
+    <t>p1175_08_t</t>
+  </si>
+  <si>
+    <t>p559_04_t</t>
+  </si>
+  <si>
+    <t>p1175_15_t</t>
+  </si>
+  <si>
+    <t>p599_t_1.0</t>
+  </si>
+  <si>
+    <t>p558c_t_1.0</t>
+  </si>
+  <si>
+    <t>p4025_t</t>
+  </si>
+  <si>
+    <t>p112a_t</t>
+  </si>
+  <si>
+    <t>p401_t</t>
+  </si>
+  <si>
+    <t>p558c_t_4.0</t>
+  </si>
+  <si>
+    <t>p1171_15_t</t>
+  </si>
+  <si>
     <t>nbi2_t</t>
   </si>
   <si>
-    <t>p300a_t</t>
-  </si>
-  <si>
-    <t>p316a5_t</t>
-  </si>
-  <si>
-    <t>p1175_01_t</t>
-  </si>
-  <si>
-    <t>p110_t</t>
-  </si>
-  <si>
-    <t>p4021_t</t>
-  </si>
-  <si>
-    <t>p105a_t</t>
-  </si>
-  <si>
-    <t>p1171_15_t</t>
-  </si>
-  <si>
-    <t>p4023_t</t>
-  </si>
-  <si>
-    <t>p110a_modificada_t</t>
-  </si>
-  <si>
-    <t>p4022_t</t>
+    <t>p558c_t_5.0</t>
+  </si>
+  <si>
+    <t>p558c_t_2.0</t>
+  </si>
+  <si>
+    <t>p104b1_t</t>
+  </si>
+  <si>
+    <t>p558d_t_2.0</t>
+  </si>
+  <si>
+    <t>p1137_t</t>
   </si>
   <si>
     <t>p316a1_t</t>
   </si>
   <si>
-    <t>p558c_t_2.0</t>
-  </si>
-  <si>
-    <t>p401_t</t>
-  </si>
-  <si>
-    <t>p1175_15_t</t>
-  </si>
-  <si>
-    <t>p558c_t_6.0</t>
-  </si>
-  <si>
-    <t>p501_t</t>
-  </si>
-  <si>
-    <t>ocu500_t_4.0</t>
-  </si>
-  <si>
-    <t>p599_t_1.0</t>
-  </si>
-  <si>
-    <t>p1175_08_t</t>
-  </si>
-  <si>
-    <t>p112a_t</t>
-  </si>
-  <si>
-    <t>p1137_t</t>
-  </si>
-  <si>
-    <t>p401c_t</t>
-  </si>
-  <si>
-    <t>p316a2_t</t>
-  </si>
-  <si>
-    <t>p558d_t_3.0</t>
-  </si>
-  <si>
-    <t>p558d_t_1.0</t>
-  </si>
-  <si>
-    <t>p104b1_t</t>
+    <t>p558c_t_8.0</t>
+  </si>
+  <si>
+    <t>p558a1_t</t>
   </si>
   <si>
     <t>p1171_08_t</t>
   </si>
   <si>
-    <t>p558c_t_5.0</t>
-  </si>
-  <si>
-    <t>p559_04_t</t>
-  </si>
-  <si>
-    <t>p558a1_t</t>
-  </si>
-  <si>
-    <t>p558c_t_1.0</t>
-  </si>
-  <si>
-    <t>p4025_t</t>
-  </si>
-  <si>
-    <t>p1136_t</t>
-  </si>
-  <si>
-    <t>p558c_t_4.0</t>
-  </si>
-  <si>
-    <t>p413b2_t</t>
-  </si>
-  <si>
-    <t>p558d_t_2.0</t>
+    <t>p22_t</t>
+  </si>
+  <si>
+    <t>p414_02_t</t>
   </si>
   <si>
     <t>p558c_t_7.0</t>
   </si>
   <si>
-    <t>p110a_t</t>
+    <t>p559_02_t</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.1002335343151243</v>
+        <v>0.06290501736034992</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -560,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.05801295217904984</v>
+        <v>0.05683542264462767</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.04629809730422665</v>
+        <v>0.05388841173835906</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -582,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.04617479558987161</v>
+        <v>0.03956054980167693</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -593,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.04362698637375531</v>
+        <v>0.03199319197026537</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -604,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.03786023099302727</v>
+        <v>0.03165165317176312</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -615,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.0302029276934412</v>
+        <v>0.02998981472169163</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -626,7 +626,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.02796873105978658</v>
+        <v>0.02315158514447716</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -637,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.01846681326692756</v>
+        <v>0.02244892606537856</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -648,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.01700676432260381</v>
+        <v>0.01965245554997968</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -659,7 +659,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.01178859106662846</v>
+        <v>0.01330153838491832</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -670,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.0115918244738688</v>
+        <v>0.01305936817092368</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -681,7 +681,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.01153787454128525</v>
+        <v>0.01249264744874843</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -692,7 +692,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.01130459538975107</v>
+        <v>0.01246255382071848</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -703,7 +703,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.01116213583257481</v>
+        <v>0.01232000984564518</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -714,7 +714,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.01070720398110504</v>
+        <v>0.01173020929801097</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -725,7 +725,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.01063190415498572</v>
+        <v>0.01167646288651614</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -736,7 +736,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.01056374808714555</v>
+        <v>0.01124127428749792</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -747,7 +747,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.010520950876118</v>
+        <v>0.01119429061864006</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -758,7 +758,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.01012986689173371</v>
+        <v>0.0107705469496752</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -769,7 +769,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.009713154534162962</v>
+        <v>0.01039685346793601</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -780,7 +780,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.009683924237184253</v>
+        <v>0.01032325199643232</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -791,7 +791,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.009598385368175914</v>
+        <v>0.0101707637256369</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -802,7 +802,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.009306137224794016</v>
+        <v>0.01006012098204096</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -813,7 +813,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.009168214681759173</v>
+        <v>0.009828189330868245</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -824,7 +824,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.008743928796036853</v>
+        <v>0.009706300382023379</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -835,7 +835,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.008662898315938512</v>
+        <v>0.009370452603065233</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -846,7 +846,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.007794271741260688</v>
+        <v>0.009364290753706482</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -857,7 +857,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.007784395023366958</v>
+        <v>0.009357985623663767</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -868,7 +868,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.007752210562113636</v>
+        <v>0.0092442702283629</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -879,7 +879,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.00772519529301947</v>
+        <v>0.009082915159279004</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -890,7 +890,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.007607890114751058</v>
+        <v>0.009019875349132562</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -901,7 +901,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.007582980783229091</v>
+        <v>0.008802866684699904</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -912,7 +912,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.00741512521341419</v>
+        <v>0.008720892483543817</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -923,7 +923,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.007212055424864941</v>
+        <v>0.00843806966406784</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -934,7 +934,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.007039306494152963</v>
+        <v>0.008295759271387386</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -945,7 +945,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>0.006716933805777131</v>
+        <v>0.00816057886654554</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -956,7 +956,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>0.006649900728838037</v>
+        <v>0.007910848267912449</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -967,7 +967,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0.00662573151409828</v>
+        <v>0.007782323448017457</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -978,7 +978,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>0.006550424442471146</v>
+        <v>0.007759383613223677</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -989,7 +989,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>0.006447978954662293</v>
+        <v>0.007504150618275552</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1000,7 +1000,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>0.006365039604354895</v>
+        <v>0.007434512054277919</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1011,7 +1011,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>0.006213165930217458</v>
+        <v>0.007398967804655828</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1022,7 +1022,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>0.005972850990577291</v>
+        <v>0.007398498650560605</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1033,7 +1033,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>0.005888823855884517</v>
+        <v>0.007384739127781455</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1044,7 +1044,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>0.005881467565376582</v>
+        <v>0.00729653133379975</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1055,7 +1055,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>0.005678816811330962</v>
+        <v>0.007034758348853325</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1066,7 +1066,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>0.005614078937215908</v>
+        <v>0.006956358824620488</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1077,7 +1077,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>0.005580995766486856</v>
+        <v>0.006880633496829224</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>0.005561588939768623</v>
+        <v>0.006871629637055668</v>
       </c>
     </row>
   </sheetData>
